--- a/test_data4.xlsx
+++ b/test_data4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="10">
   <si>
     <t>Genotype</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>gene5</t>
+  </si>
+  <si>
+    <t>gene6</t>
+  </si>
+  <si>
+    <t>gene7</t>
   </si>
 </sst>
 </file>
@@ -365,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,7 +396,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1000,2000)</f>
-        <v>1508</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -399,7 +405,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B31" ca="1" si="0">RANDBETWEEN(1000,2000)</f>
-        <v>1524</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -408,7 +414,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>1650</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -417,7 +423,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1177</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -426,7 +432,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>1666</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -435,7 +441,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1171</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -444,7 +450,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1841</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -453,7 +459,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1242</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +468,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1952</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -471,7 +477,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>1639</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -480,7 +486,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>1512</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -489,7 +495,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>1676</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -498,7 +504,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>1363</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -507,7 +513,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>1372</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -516,7 +522,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>1777</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -525,7 +531,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>1600</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -534,7 +540,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>1624</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -543,7 +549,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>1747</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -552,7 +558,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>1205</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -561,7 +567,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>1964</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,7 +576,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>1978</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -579,7 +585,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>1834</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -588,7 +594,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>1732</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -597,7 +603,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>1602</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -606,7 +612,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>1409</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -615,7 +621,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>1508</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -624,7 +630,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>1002</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -633,7 +639,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>1011</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -642,7 +648,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>1913</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -651,7 +657,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>1335</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -660,7 +666,7 @@
       </c>
       <c r="B32">
         <f ca="1">RANDBETWEEN(0,1000)</f>
-        <v>21</v>
+        <v>925</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -669,7 +675,7 @@
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B61" ca="1" si="1">RANDBETWEEN(0,1000)</f>
-        <v>249</v>
+        <v>617</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -678,7 +684,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>847</v>
+        <v>831</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -687,7 +693,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -696,7 +702,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>821</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -705,7 +711,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>858</v>
+        <v>807</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -714,7 +720,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>269</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -723,7 +729,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>860</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -732,7 +738,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>274</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -741,7 +747,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>800</v>
+        <v>758</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -750,7 +756,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>553</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -759,7 +765,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>302</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -768,7 +774,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>795</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -777,7 +783,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>984</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -786,7 +792,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>201</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -795,7 +801,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>667</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -804,7 +810,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>460</v>
+        <v>825</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -813,7 +819,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>765</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -822,7 +828,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -831,7 +837,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>192</v>
+        <v>783</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -840,7 +846,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>301</v>
+        <v>967</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -849,7 +855,7 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>734</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -858,7 +864,7 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -867,7 +873,7 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>510</v>
+        <v>791</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -876,7 +882,7 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>546</v>
+        <v>817</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -885,7 +891,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -894,7 +900,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>291</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -903,7 +909,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>491</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -912,7 +918,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>954</v>
+        <v>885</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -921,7 +927,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>701</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -930,7 +936,7 @@
       </c>
       <c r="B62">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2990</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -939,7 +945,7 @@
       </c>
       <c r="B63">
         <f t="shared" ref="B63:B91" ca="1" si="2">RANDBETWEEN(2000,3000)</f>
-        <v>2354</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,7 +954,7 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="2"/>
-        <v>2663</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -957,7 +963,7 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="2"/>
-        <v>2341</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -966,7 +972,7 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="2"/>
-        <v>2296</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -975,7 +981,7 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="2"/>
-        <v>2860</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -984,7 +990,7 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="2"/>
-        <v>2804</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -993,7 +999,7 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="2"/>
-        <v>2463</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1002,7 +1008,7 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="2"/>
-        <v>2133</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1011,7 +1017,7 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="2"/>
-        <v>2965</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1020,7 +1026,7 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="2"/>
-        <v>2505</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1029,7 +1035,7 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="2"/>
-        <v>2132</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1038,7 +1044,7 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="2"/>
-        <v>2059</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1047,7 +1053,7 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="2"/>
-        <v>2987</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1056,7 +1062,7 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="2"/>
-        <v>2234</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1065,7 +1071,7 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="2"/>
-        <v>2592</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1074,7 +1080,7 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="2"/>
-        <v>2240</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1083,7 +1089,7 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="2"/>
-        <v>2554</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1092,7 +1098,7 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="2"/>
-        <v>2513</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1101,7 +1107,7 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="2"/>
-        <v>2852</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1110,7 +1116,7 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="2"/>
-        <v>2860</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1119,7 +1125,7 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="2"/>
-        <v>2863</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1128,7 +1134,7 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="2"/>
-        <v>2190</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1137,7 +1143,7 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="2"/>
-        <v>2800</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1146,7 +1152,7 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="2"/>
-        <v>2304</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1155,7 +1161,7 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="2"/>
-        <v>2528</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1164,7 +1170,7 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="2"/>
-        <v>2553</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1173,7 +1179,7 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="2"/>
-        <v>2357</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1182,7 +1188,7 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="2"/>
-        <v>2934</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1191,7 +1197,7 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="2"/>
-        <v>2555</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1200,7 +1206,7 @@
       </c>
       <c r="B92">
         <f ca="1">RANDBETWEEN(1000,1500)</f>
-        <v>1002</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1209,7 +1215,7 @@
       </c>
       <c r="B93">
         <f t="shared" ref="B93:B121" ca="1" si="3">RANDBETWEEN(1000,1500)</f>
-        <v>1193</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1218,7 +1224,7 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="3"/>
-        <v>1484</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1227,7 +1233,7 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="3"/>
-        <v>1311</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1236,7 +1242,7 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="3"/>
-        <v>1159</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1245,7 +1251,7 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="3"/>
-        <v>1261</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1254,7 +1260,7 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="3"/>
-        <v>1234</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1263,7 +1269,7 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="3"/>
-        <v>1067</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1272,7 +1278,7 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="3"/>
-        <v>1433</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1281,7 +1287,7 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="3"/>
-        <v>1350</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1290,7 +1296,7 @@
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="3"/>
-        <v>1329</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1299,7 +1305,7 @@
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="3"/>
-        <v>1275</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1308,7 +1314,7 @@
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="3"/>
-        <v>1187</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1317,7 +1323,7 @@
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="3"/>
-        <v>1433</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1326,7 +1332,7 @@
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="3"/>
-        <v>1136</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1335,7 +1341,7 @@
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="3"/>
-        <v>1187</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1344,7 +1350,7 @@
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="3"/>
-        <v>1302</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1353,7 +1359,7 @@
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="3"/>
-        <v>1497</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1362,7 +1368,7 @@
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="3"/>
-        <v>1355</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1371,7 +1377,7 @@
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="3"/>
-        <v>1382</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1380,7 +1386,7 @@
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="3"/>
-        <v>1112</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1389,7 +1395,7 @@
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="3"/>
-        <v>1213</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1398,7 +1404,7 @@
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="3"/>
-        <v>1426</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1407,7 +1413,7 @@
       </c>
       <c r="B115">
         <f t="shared" ca="1" si="3"/>
-        <v>1316</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1416,7 +1422,7 @@
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="3"/>
-        <v>1491</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1425,7 +1431,7 @@
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="3"/>
-        <v>1364</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1434,7 +1440,7 @@
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="3"/>
-        <v>1243</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1443,7 +1449,7 @@
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="3"/>
-        <v>1095</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1452,7 +1458,7 @@
       </c>
       <c r="B120">
         <f t="shared" ca="1" si="3"/>
-        <v>1470</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1461,7 +1467,7 @@
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="3"/>
-        <v>1254</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1470,7 +1476,7 @@
       </c>
       <c r="B122">
         <f ca="1">RANDBETWEEN(1500,2000)</f>
-        <v>1961</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1479,7 +1485,7 @@
       </c>
       <c r="B123">
         <f t="shared" ref="B123:B151" ca="1" si="4">RANDBETWEEN(1500,2000)</f>
-        <v>1573</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1488,7 +1494,7 @@
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="4"/>
-        <v>1792</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1497,7 +1503,7 @@
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="4"/>
-        <v>1759</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -1506,7 +1512,7 @@
       </c>
       <c r="B126">
         <f t="shared" ca="1" si="4"/>
-        <v>1782</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -1515,7 +1521,7 @@
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="4"/>
-        <v>1964</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -1524,7 +1530,7 @@
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="4"/>
-        <v>1750</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -1533,7 +1539,7 @@
       </c>
       <c r="B129">
         <f t="shared" ca="1" si="4"/>
-        <v>1664</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -1542,7 +1548,7 @@
       </c>
       <c r="B130">
         <f t="shared" ca="1" si="4"/>
-        <v>1643</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -1551,7 +1557,7 @@
       </c>
       <c r="B131">
         <f t="shared" ca="1" si="4"/>
-        <v>1572</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -1560,7 +1566,7 @@
       </c>
       <c r="B132">
         <f t="shared" ca="1" si="4"/>
-        <v>1711</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -1569,7 +1575,7 @@
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="4"/>
-        <v>1720</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -1578,7 +1584,7 @@
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="4"/>
-        <v>1693</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -1587,7 +1593,7 @@
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="4"/>
-        <v>1727</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -1596,7 +1602,7 @@
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="4"/>
-        <v>1784</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -1605,7 +1611,7 @@
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="4"/>
-        <v>1900</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -1614,7 +1620,7 @@
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="4"/>
-        <v>1521</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -1623,7 +1629,7 @@
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="4"/>
-        <v>1943</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -1632,7 +1638,7 @@
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="4"/>
-        <v>1882</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -1641,7 +1647,7 @@
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="4"/>
-        <v>1527</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -1650,7 +1656,7 @@
       </c>
       <c r="B142">
         <f t="shared" ca="1" si="4"/>
-        <v>1651</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -1659,7 +1665,7 @@
       </c>
       <c r="B143">
         <f t="shared" ca="1" si="4"/>
-        <v>1947</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -1668,7 +1674,7 @@
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="4"/>
-        <v>1996</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -1677,7 +1683,7 @@
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="4"/>
-        <v>1571</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -1686,7 +1692,7 @@
       </c>
       <c r="B146">
         <f t="shared" ca="1" si="4"/>
-        <v>1943</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -1695,7 +1701,7 @@
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="4"/>
-        <v>1774</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -1704,7 +1710,7 @@
       </c>
       <c r="B148">
         <f t="shared" ca="1" si="4"/>
-        <v>1808</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -1713,7 +1719,7 @@
       </c>
       <c r="B149">
         <f t="shared" ca="1" si="4"/>
-        <v>1789</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -1722,7 +1728,7 @@
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="4"/>
-        <v>1727</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -1731,7 +1737,7 @@
       </c>
       <c r="B151">
         <f t="shared" ca="1" si="4"/>
-        <v>1502</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -1740,7 +1746,7 @@
       </c>
       <c r="B152">
         <f ca="1">RANDBETWEEN(0,3000)</f>
-        <v>2665</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -1748,8 +1754,8 @@
         <v>7</v>
       </c>
       <c r="B153">
-        <f t="shared" ref="B153:B181" ca="1" si="5">RANDBETWEEN(0,3000)</f>
-        <v>2381</v>
+        <f t="shared" ref="B153:B216" ca="1" si="5">RANDBETWEEN(0,3000)</f>
+        <v>1266</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -1758,7 +1764,7 @@
       </c>
       <c r="B154">
         <f t="shared" ca="1" si="5"/>
-        <v>1355</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -1767,7 +1773,7 @@
       </c>
       <c r="B155">
         <f t="shared" ca="1" si="5"/>
-        <v>835</v>
+        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -1776,7 +1782,7 @@
       </c>
       <c r="B156">
         <f t="shared" ca="1" si="5"/>
-        <v>953</v>
+        <v>593</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -1785,7 +1791,7 @@
       </c>
       <c r="B157">
         <f t="shared" ca="1" si="5"/>
-        <v>246</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -1794,7 +1800,7 @@
       </c>
       <c r="B158">
         <f t="shared" ca="1" si="5"/>
-        <v>2487</v>
+        <v>759</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -1803,7 +1809,7 @@
       </c>
       <c r="B159">
         <f t="shared" ca="1" si="5"/>
-        <v>1906</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -1812,7 +1818,7 @@
       </c>
       <c r="B160">
         <f t="shared" ca="1" si="5"/>
-        <v>1621</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -1821,7 +1827,7 @@
       </c>
       <c r="B161">
         <f t="shared" ca="1" si="5"/>
-        <v>331</v>
+        <v>519</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -1830,7 +1836,7 @@
       </c>
       <c r="B162">
         <f t="shared" ca="1" si="5"/>
-        <v>2979</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -1839,7 +1845,7 @@
       </c>
       <c r="B163">
         <f t="shared" ca="1" si="5"/>
-        <v>2826</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -1848,7 +1854,7 @@
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="5"/>
-        <v>1704</v>
+        <v>780</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -1857,7 +1863,7 @@
       </c>
       <c r="B165">
         <f t="shared" ca="1" si="5"/>
-        <v>1452</v>
+        <v>735</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -1866,7 +1872,7 @@
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="5"/>
-        <v>1945</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -1875,7 +1881,7 @@
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="5"/>
-        <v>2861</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -1884,7 +1890,7 @@
       </c>
       <c r="B168">
         <f t="shared" ca="1" si="5"/>
-        <v>1721</v>
+        <v>215</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -1893,7 +1899,7 @@
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="5"/>
-        <v>2767</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -1902,7 +1908,7 @@
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="5"/>
-        <v>2202</v>
+        <v>521</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -1911,7 +1917,7 @@
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="5"/>
-        <v>2967</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -1920,7 +1926,7 @@
       </c>
       <c r="B172">
         <f t="shared" ca="1" si="5"/>
-        <v>1763</v>
+        <v>716</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -1929,7 +1935,7 @@
       </c>
       <c r="B173">
         <f t="shared" ca="1" si="5"/>
-        <v>1678</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -1938,7 +1944,7 @@
       </c>
       <c r="B174">
         <f t="shared" ca="1" si="5"/>
-        <v>515</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -1947,7 +1953,7 @@
       </c>
       <c r="B175">
         <f t="shared" ca="1" si="5"/>
-        <v>2250</v>
+        <v>434</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -1956,7 +1962,7 @@
       </c>
       <c r="B176">
         <f t="shared" ca="1" si="5"/>
-        <v>2930</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -1965,7 +1971,7 @@
       </c>
       <c r="B177">
         <f t="shared" ca="1" si="5"/>
-        <v>2491</v>
+        <v>653</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -1974,7 +1980,7 @@
       </c>
       <c r="B178">
         <f t="shared" ca="1" si="5"/>
-        <v>1266</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -1983,7 +1989,7 @@
       </c>
       <c r="B179">
         <f t="shared" ca="1" si="5"/>
-        <v>2250</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -1992,7 +1998,7 @@
       </c>
       <c r="B180">
         <f t="shared" ca="1" si="5"/>
-        <v>1992</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -2001,7 +2007,547 @@
       </c>
       <c r="B181">
         <f t="shared" ca="1" si="5"/>
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182">
+        <f t="shared" ca="1" si="5"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183">
+        <f t="shared" ca="1" si="5"/>
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185">
+        <f t="shared" ca="1" si="5"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186">
+        <f t="shared" ca="1" si="5"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187">
+        <f t="shared" ca="1" si="5"/>
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188">
+        <f t="shared" ca="1" si="5"/>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189">
+        <f t="shared" ca="1" si="5"/>
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190">
+        <f t="shared" ca="1" si="5"/>
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191">
+        <f t="shared" ca="1" si="5"/>
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192">
+        <f t="shared" ca="1" si="5"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193">
+        <f t="shared" ca="1" si="5"/>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194">
+        <f t="shared" ca="1" si="5"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ca="1" si="5"/>
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196">
+        <f t="shared" ca="1" si="5"/>
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197">
+        <f t="shared" ca="1" si="5"/>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198">
+        <f t="shared" ca="1" si="5"/>
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199">
+        <f t="shared" ca="1" si="5"/>
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200">
+        <f t="shared" ca="1" si="5"/>
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201">
+        <f t="shared" ca="1" si="5"/>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202">
+        <f t="shared" ca="1" si="5"/>
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203">
+        <f t="shared" ca="1" si="5"/>
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204">
+        <f t="shared" ca="1" si="5"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205">
+        <f t="shared" ca="1" si="5"/>
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206">
+        <f t="shared" ca="1" si="5"/>
         <v>1726</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207">
+        <f t="shared" ca="1" si="5"/>
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208">
+        <f t="shared" ca="1" si="5"/>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209">
+        <f t="shared" ca="1" si="5"/>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210">
+        <f t="shared" ca="1" si="5"/>
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211">
+        <f t="shared" ca="1" si="5"/>
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212">
+        <f t="shared" ca="1" si="5"/>
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213">
+        <f t="shared" ca="1" si="5"/>
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214">
+        <f t="shared" ca="1" si="5"/>
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215">
+        <f t="shared" ca="1" si="5"/>
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216">
+        <f t="shared" ca="1" si="5"/>
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217">
+        <f t="shared" ref="B217:B241" ca="1" si="6">RANDBETWEEN(0,3000)</f>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218">
+        <f t="shared" ca="1" si="6"/>
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219">
+        <f t="shared" ca="1" si="6"/>
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220">
+        <f t="shared" ca="1" si="6"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221">
+        <f t="shared" ca="1" si="6"/>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222">
+        <f t="shared" ca="1" si="6"/>
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223">
+        <f t="shared" ca="1" si="6"/>
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224">
+        <f t="shared" ca="1" si="6"/>
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225">
+        <f t="shared" ca="1" si="6"/>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226">
+        <f t="shared" ca="1" si="6"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227">
+        <f t="shared" ca="1" si="6"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228">
+        <f t="shared" ca="1" si="6"/>
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229">
+        <f t="shared" ca="1" si="6"/>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230">
+        <f t="shared" ca="1" si="6"/>
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231">
+        <f t="shared" ca="1" si="6"/>
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232">
+        <f t="shared" ca="1" si="6"/>
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233">
+        <f t="shared" ca="1" si="6"/>
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234">
+        <f t="shared" ca="1" si="6"/>
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235">
+        <f t="shared" ca="1" si="6"/>
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236">
+        <f t="shared" ca="1" si="6"/>
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237">
+        <f t="shared" ca="1" si="6"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238">
+        <f t="shared" ca="1" si="6"/>
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239">
+        <f t="shared" ca="1" si="6"/>
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240">
+        <f t="shared" ca="1" si="6"/>
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241">
+        <f t="shared" ca="1" si="6"/>
+        <v>2221</v>
       </c>
     </row>
   </sheetData>
